--- a/相关文档/PandaLink APP功能需求确认表.xlsx
+++ b/相关文档/PandaLink APP功能需求确认表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="-11980" yWindow="460" windowWidth="28800" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="iOS" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,8 +545,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/相关文档/PandaLink APP功能需求确认表.xlsx
+++ b/相关文档/PandaLink APP功能需求确认表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-11980" yWindow="460" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="-940" yWindow="460" windowWidth="18540" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="iOS" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A9" activeCellId="1" sqref="A8:XFD8 A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,13 +550,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/相关文档/PandaLink APP功能需求确认表.xlsx
+++ b/相关文档/PandaLink APP功能需求确认表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-940" yWindow="460" windowWidth="18540" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="iOS" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" activeCellId="1" sqref="A8:XFD8 A9:XFD9"/>
+      <selection activeCell="B9" activeCellId="1" sqref="A5:XFD5 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,8 +539,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -603,8 +603,8 @@
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/相关文档/PandaLink APP功能需求确认表.xlsx
+++ b/相关文档/PandaLink APP功能需求确认表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15540" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="iOS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>功能需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>工作发布，选择客户，请在客户名字后加选择框并允许多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端逻辑已按照result值判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +165,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -176,14 +186,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" activeCellId="1" sqref="A5:XFD5 B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,97 +527,103 @@
     <col min="4" max="4" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
